--- a/Apple_data_quarterly_income_statement.xlsx
+++ b/Apple_data_quarterly_income_statement.xlsx
@@ -441,19 +441,19 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>45291</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>45199</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>45107</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>45016</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>44926</v>
       </c>
     </row>
     <row r="2">
@@ -485,19 +485,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.159</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.149715</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.125</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.149</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.158</v>
       </c>
     </row>
     <row r="4">
@@ -507,19 +507,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>30736000000</v>
+      </c>
+      <c r="C4" t="n">
         <v>43221000000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>30653000000</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>26783000000</v>
       </c>
-      <c r="E4" t="n">
-        <v>32210000000</v>
-      </c>
       <c r="F4" t="n">
-        <v>38932000000</v>
+        <v>31216000000</v>
       </c>
     </row>
     <row r="5">
@@ -529,19 +529,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>23636000000</v>
+      </c>
+      <c r="C5" t="n">
         <v>33916000000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>22956000000</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>19881000000</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>24160000000</v>
-      </c>
-      <c r="F5" t="n">
-        <v>29998000000</v>
       </c>
     </row>
     <row r="6">
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>2836000000</v>
+      </c>
+      <c r="C6" t="n">
         <v>2848000000</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>2653000000</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>3052000000</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>2898000000</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2916000000</v>
       </c>
     </row>
     <row r="7">
@@ -573,19 +573,19 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>48482000000</v>
+      </c>
+      <c r="C7" t="n">
         <v>64720000000</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>49071000000</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>45384000000</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>52860000000</v>
-      </c>
-      <c r="F7" t="n">
-        <v>66822000000</v>
       </c>
     </row>
     <row r="8">
@@ -595,19 +595,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>30736000000</v>
+      </c>
+      <c r="C8" t="n">
         <v>43221000000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>30653000000</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>26783000000</v>
       </c>
-      <c r="E8" t="n">
-        <v>32210000000</v>
-      </c>
       <c r="F8" t="n">
-        <v>38932000000</v>
+        <v>31216000000</v>
       </c>
     </row>
     <row r="9">
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>27900000000</v>
+      </c>
+      <c r="C9" t="n">
         <v>40373000000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>28000000000</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>23731000000</v>
       </c>
-      <c r="E9" t="n">
-        <v>29312000000</v>
-      </c>
       <c r="F9" t="n">
-        <v>36016000000</v>
+        <v>28318000000</v>
       </c>
     </row>
     <row r="10">
@@ -639,17 +639,15 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>-18000000</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
         <v>-18000000</v>
       </c>
       <c r="E10" t="n">
+        <v>-18000000</v>
+      </c>
+      <c r="F10" t="n">
         <v>-12000000</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-135000000</v>
       </c>
     </row>
     <row r="11">
@@ -659,17 +657,15 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="n">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
         <v>1002000000</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>998000000</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>930000000</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1003000000</v>
       </c>
     </row>
     <row r="12">
@@ -679,17 +675,15 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
         <v>984000000</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>980000000</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>918000000</v>
-      </c>
-      <c r="F12" t="n">
-        <v>868000000</v>
       </c>
     </row>
     <row r="13">
@@ -699,19 +693,19 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>23636000000</v>
+      </c>
+      <c r="C13" t="n">
         <v>33916000000</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>22956000000</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>19881000000</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>24160000000</v>
-      </c>
-      <c r="F13" t="n">
-        <v>29998000000</v>
       </c>
     </row>
     <row r="14">
@@ -721,19 +715,19 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>23636000000</v>
+      </c>
+      <c r="C14" t="n">
         <v>33916000000</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>22956000000</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>19881000000</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>24160000000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>29998000000</v>
       </c>
     </row>
     <row r="15">
@@ -743,19 +737,19 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>62853000000</v>
+      </c>
+      <c r="C15" t="n">
         <v>79202000000</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>62529000000</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>58799000000</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>66518000000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>81138000000</v>
       </c>
     </row>
     <row r="16">
@@ -765,19 +759,19 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>27900000000</v>
+      </c>
+      <c r="C16" t="n">
         <v>40373000000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>26969000000</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>22998000000</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>28318000000</v>
-      </c>
-      <c r="F16" t="n">
-        <v>36016000000</v>
       </c>
     </row>
     <row r="17">
@@ -787,19 +781,19 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>15464709000</v>
+      </c>
+      <c r="C17" t="n">
         <v>15576641000</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>15672400000</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>15775021000</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>15847050000</v>
-      </c>
-      <c r="F17" t="n">
-        <v>15955718000</v>
       </c>
     </row>
     <row r="18">
@@ -809,19 +803,19 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>15405856000</v>
+      </c>
+      <c r="C18" t="n">
         <v>15509763000</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>15599434000</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>15697614000</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>15787154000</v>
-      </c>
-      <c r="F18" t="n">
-        <v>15892723000</v>
       </c>
     </row>
     <row r="19">
@@ -831,19 +825,19 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="C19" t="n">
         <v>2.18</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>1.46</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>1.26</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.52</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.88</v>
       </c>
     </row>
     <row r="20">
@@ -853,19 +847,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="C20" t="n">
         <v>2.19</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>1.47</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>1.27</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.53</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.89</v>
       </c>
     </row>
     <row r="21">
@@ -875,19 +869,19 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>23636000000</v>
+      </c>
+      <c r="C21" t="n">
         <v>33916000000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>22956000000</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>19881000000</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>24160000000</v>
-      </c>
-      <c r="F21" t="n">
-        <v>29998000000</v>
       </c>
     </row>
     <row r="22">
@@ -897,19 +891,19 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>23636000000</v>
+      </c>
+      <c r="C22" t="n">
         <v>33916000000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>22956000000</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>19881000000</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>24160000000</v>
-      </c>
-      <c r="F22" t="n">
-        <v>29998000000</v>
       </c>
     </row>
     <row r="23">
@@ -919,19 +913,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>23636000000</v>
+      </c>
+      <c r="C23" t="n">
         <v>33916000000</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>22956000000</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>19881000000</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>24160000000</v>
-      </c>
-      <c r="F23" t="n">
-        <v>29998000000</v>
       </c>
     </row>
     <row r="24">
@@ -941,19 +935,19 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>23636000000</v>
+      </c>
+      <c r="C24" t="n">
         <v>33916000000</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>22956000000</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>19881000000</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>24160000000</v>
-      </c>
-      <c r="F24" t="n">
-        <v>29998000000</v>
       </c>
     </row>
     <row r="25">
@@ -963,19 +957,19 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>23636000000</v>
+      </c>
+      <c r="C25" t="n">
         <v>33916000000</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>22956000000</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>19881000000</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>24160000000</v>
-      </c>
-      <c r="F25" t="n">
-        <v>29998000000</v>
       </c>
     </row>
     <row r="26">
@@ -985,19 +979,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>4422000000</v>
+      </c>
+      <c r="C26" t="n">
         <v>6407000000</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>4042000000</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>2852000000</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>4222000000</v>
-      </c>
-      <c r="F26" t="n">
-        <v>5625000000</v>
       </c>
     </row>
     <row r="27">
@@ -1007,19 +1001,19 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>28058000000</v>
+      </c>
+      <c r="C27" t="n">
         <v>40323000000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>26998000000</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>22733000000</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>28382000000</v>
-      </c>
-      <c r="F27" t="n">
-        <v>35623000000</v>
       </c>
     </row>
     <row r="28">
@@ -1029,19 +1023,19 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>158000000</v>
+      </c>
+      <c r="C28" t="n">
         <v>-50000000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>47000000</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>-247000000</v>
       </c>
-      <c r="E28" t="n">
-        <v>76000000</v>
-      </c>
       <c r="F28" t="n">
-        <v>-393000000</v>
+        <v>64000000</v>
       </c>
     </row>
     <row r="29">
@@ -1051,19 +1045,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>158000000</v>
+      </c>
+      <c r="C29" t="n">
         <v>-50000000</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>47000000</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>-247000000</v>
       </c>
-      <c r="E29" t="n">
-        <v>76000000</v>
-      </c>
       <c r="F29" t="n">
-        <v>-393000000</v>
+        <v>64000000</v>
       </c>
     </row>
     <row r="30">
@@ -1073,17 +1067,15 @@
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
-        <v>-18000000</v>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
         <v>-18000000</v>
       </c>
       <c r="E30" t="n">
+        <v>-18000000</v>
+      </c>
+      <c r="F30" t="n">
         <v>-12000000</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-135000000</v>
       </c>
     </row>
     <row r="31">
@@ -1093,17 +1085,15 @@
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
         <v>1002000000</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>998000000</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>930000000</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1003000000</v>
       </c>
     </row>
     <row r="32">
@@ -1113,17 +1103,15 @@
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
         <v>984000000</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>980000000</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>918000000</v>
-      </c>
-      <c r="F32" t="n">
-        <v>868000000</v>
       </c>
     </row>
     <row r="33">
@@ -1133,19 +1121,19 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>27900000000</v>
+      </c>
+      <c r="C33" t="n">
         <v>40373000000</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>26969000000</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>22998000000</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>28318000000</v>
-      </c>
-      <c r="F33" t="n">
-        <v>36016000000</v>
       </c>
     </row>
     <row r="34">
@@ -1155,19 +1143,19 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>14371000000</v>
+      </c>
+      <c r="C34" t="n">
         <v>14482000000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>13458000000</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>13415000000</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>13658000000</v>
-      </c>
-      <c r="F34" t="n">
-        <v>14316000000</v>
       </c>
     </row>
     <row r="35">
@@ -1177,19 +1165,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>7903000000</v>
+      </c>
+      <c r="C35" t="n">
         <v>7696000000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>7307000000</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>7442000000</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>7457000000</v>
-      </c>
-      <c r="F35" t="n">
-        <v>7709000000</v>
       </c>
     </row>
     <row r="36">
@@ -1199,19 +1187,19 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>6468000000</v>
+      </c>
+      <c r="C36" t="n">
         <v>6786000000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>6151000000</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>5973000000</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>6201000000</v>
-      </c>
-      <c r="F36" t="n">
-        <v>6607000000</v>
       </c>
     </row>
     <row r="37">
@@ -1221,19 +1209,19 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>42271000000</v>
+      </c>
+      <c r="C37" t="n">
         <v>54855000000</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>40427000000</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>36413000000</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>41976000000</v>
-      </c>
-      <c r="F37" t="n">
-        <v>50332000000</v>
       </c>
     </row>
     <row r="38">
@@ -1243,19 +1231,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>48482000000</v>
+      </c>
+      <c r="C38" t="n">
         <v>64720000000</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>49071000000</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>45384000000</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>52860000000</v>
-      </c>
-      <c r="F38" t="n">
-        <v>66822000000</v>
       </c>
     </row>
     <row r="39">
@@ -1265,19 +1253,19 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>90753000000</v>
+      </c>
+      <c r="C39" t="n">
         <v>119575000000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>89498000000</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>81797000000</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>94836000000</v>
-      </c>
-      <c r="F39" t="n">
-        <v>117154000000</v>
       </c>
     </row>
     <row r="40">
@@ -1287,19 +1275,19 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>90753000000</v>
+      </c>
+      <c r="C40" t="n">
         <v>119575000000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>89498000000</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>81797000000</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>94836000000</v>
-      </c>
-      <c r="F40" t="n">
-        <v>117154000000</v>
       </c>
     </row>
   </sheetData>
